--- a/runtime/buffer_out.xlsx
+++ b/runtime/buffer_out.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="x" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="x" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,14 +413,1661 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>01/23/24</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>01/25/24</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMAZON.COM INC</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>0.00074</t>
+        </is>
+      </c>
+      <c r="F1" t="n">
+        <v>7646.52</v>
+      </c>
+      <c r="G1" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="H1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="J1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>AVENUE SECURITIES LLC</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>61.384.004/0001-05</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Amazon.com, Inc.</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01/23/24</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>01/25/24</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMAZON.COM INC</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.989</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>7644.55</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7560.55</v>
+      </c>
+      <c r="H2" t="n">
+        <v>123.24</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7437.31</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>AVENUE SECURITIES LLC</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>61.384.004/0001-05</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Amazon.com, Inc.</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01/23/24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>01/25/24</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALPHABET INC CLASS A COMMON STOCK</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>7249.59</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4349.89</v>
+      </c>
+      <c r="H3" t="n">
+        <v>123.24</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4226.65</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>AVENUE SECURITIES LLC</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>61.384.004/0001-05</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Alphabet Inc.</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01/23/24</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>01/25/24</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APPLE INC</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>9586.719999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2875.94</v>
+      </c>
+      <c r="H4" t="n">
+        <v>123.24</v>
+      </c>
+      <c r="I4" t="n">
+        <v>275.27</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>AVENUE SECURITIES LLC</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>61.384.004/0001-05</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Apple Inc.</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>01/23/24</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>01/25/24</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>IAU</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ISHARES GOLD TRUST SHARES OF THE ISHARES GOLD TRUST</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1889.62</v>
+      </c>
+      <c r="G5" t="n">
+        <v>566.91</v>
+      </c>
+      <c r="H5" t="n">
+        <v>123.24</v>
+      </c>
+      <c r="I5" t="n">
+        <v>443.67</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>AVENUE SECURITIES LLC</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>61.384.004/0001-05</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>iShares Gold Trust</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>01/23/24</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>01/25/24</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MICROSOFT CORP</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>19508.36</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9754.23</v>
+      </c>
+      <c r="H6" t="n">
+        <v>123.24</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9630.99</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>AVENUE SECURITIES LLC</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>61.384.004/0001-05</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Microsoft Corporation</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>01/23/24</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>01/25/24</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SCHD</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SCHWAB STRATEGIC TR US DIVIDEND EQUITY ETF</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>3785.55</v>
+      </c>
+      <c r="G7" t="n">
+        <v>567.89</v>
+      </c>
+      <c r="H7" t="n">
+        <v>123.24</v>
+      </c>
+      <c r="I7" t="n">
+        <v>444.65</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>AVENUE SECURITIES LLC</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>61.384.004/0001-05</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Schwab U.S. Dividend Equity ETF</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>01/23/24</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>01/25/24</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SCHD</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SCHWAB STRATEGIC TR US DIVIDEND EQUITY ETF</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.04472</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>3785.06</v>
+      </c>
+      <c r="G8" t="n">
+        <v>169.09</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>169.09</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>AVENUE SECURITIES LLC</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>61.384.004/0001-05</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Schwab U.S. Dividend Equity ETF</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>01/23/24</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>01/25/24</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SPY</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SPDR S&amp;P 500 ETF TRUST</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.01194</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>23821.28</v>
+      </c>
+      <c r="G9" t="n">
+        <v>24105.82</v>
+      </c>
+      <c r="H9" t="n">
+        <v>123.24</v>
+      </c>
+      <c r="I9" t="n">
+        <v>24229.06</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>AVENUE SECURITIES LLC</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>61.384.004/0001-05</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>SPDR S&amp;P 500 ETF Trust</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>01/23/24</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>01/25/24</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SPY</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SPDR S&amp;P 500 ETF TRUST</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.11797</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>23817.93</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2809.88</v>
+      </c>
+      <c r="H10" t="n">
+        <v>123.24</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2933.12</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>AVENUE SECURITIES LLC</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>61.384.004/0001-05</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>SPDR S&amp;P 500 ETF Trust</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>01/23/24</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>01/25/24</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>VNQI</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VANGUARD GLOBAL EX US REAL ESTATE ETF</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1980.24</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1940.79</v>
+      </c>
+      <c r="H11" t="n">
+        <v>123.24</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1817.55</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>AVENUE SECURITIES LLC</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>61.384.004/0001-05</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Vanguard Global ex-U.S. Real Estate Index Fund</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01/23/24</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>01/25/24</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>VNQI</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VANGUARD GLOBAL EX US REAL ESTATE ETF</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1980.24</v>
+      </c>
+      <c r="G12" t="n">
+        <v>39.44</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>39.44</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>AVENUE SECURITIES LLC</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>61.384.004/0001-05</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Vanguard Global ex-U.S. Real Estate Index Fund</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20/12/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>22/12/2023</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IVVB11 </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ISHARE SP500CI</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>258.13</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1032.52</v>
+      </c>
+      <c r="H13" t="n">
+        <v>25.04</v>
+      </c>
+      <c r="I13" t="n">
+        <v>264.39</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>SWING_TRADE</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Inter DTVM Ltda.</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>8.945.670/0001-46</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>iShares S&amp;P 500 Fundo de Investimento - Investimento No Exterior</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>('NÃO CADASTRADO NA B3',)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>22/01/2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>KEPL3.SA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>KEPLER WEBERON NM</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>25</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="G14" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>SWING_TRADE</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>FRACIONARIO</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>XP INVESTIMENTOS CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>02.332.886/0001-04</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Kepler Weber S.A.</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>91983056000169</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>22/01/2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PBR</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>PETROBRAS</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>37.59</v>
+      </c>
+      <c r="G15" t="n">
+        <v>263.13</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="I15" t="n">
+        <v>37.98</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>SWING_TRADE</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>FRACIONARIO</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>XP INVESTIMENTOS CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>02.332.886/0001-04</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Petróleo Brasileiro S.A. - Petrobras</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>33000167000101</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>22/01/2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>VLID3.SA</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>20.79</v>
+      </c>
+      <c r="G16" t="n">
+        <v>166.32</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="I16" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>SWING_TRADE</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>FRACIONARIO</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>XP INVESTIMENTOS CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>02.332.886/0001-04</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Valid Soluções S.A.</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>33113309000147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>22/01/2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>VLID3.SA</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>20.77</v>
+      </c>
+      <c r="G17" t="n">
+        <v>83.08</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I17" t="n">
+        <v>21.16</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>SWING_TRADE</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>FRACIONARIO</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>XP INVESTIMENTOS CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>02.332.886/0001-04</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Valid Soluções S.A.</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>33113309000147</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>22/01/2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>KEPL3.SA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>KEPLER WEBERON NM</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>25</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="G18" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>SWING_TRADE</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>FRACIONARIO</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>XP INVESTIMENTOS CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>02.332.886/0001-04</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Kepler Weber S.A.</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>91983056000169</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>22/01/2024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PBR</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PETROBRAS</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>37.59</v>
+      </c>
+      <c r="G19" t="n">
+        <v>263.13</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="I19" t="n">
+        <v>37.98</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>SWING_TRADE</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>FRACIONARIO</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>XP INVESTIMENTOS CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>02.332.886/0001-04</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Petróleo Brasileiro S.A. - Petrobras</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>33000167000101</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>22/01/2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>VLID3.SA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>20.79</v>
+      </c>
+      <c r="G20" t="n">
+        <v>166.32</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="I20" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>SWING_TRADE</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>FRACIONARIO</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>XP INVESTIMENTOS CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>02.332.886/0001-04</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Valid Soluções S.A.</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>33113309000147</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>22/01/2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>VLID3.SA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>20.77</v>
+      </c>
+      <c r="G21" t="n">
+        <v>83.08</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I21" t="n">
+        <v>21.16</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>SWING_TRADE</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>FRACIONARIO</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>XP INVESTIMENTOS CCTVM S/A</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>02.332.886/0001-04</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Valid Soluções S.A.</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>33113309000147</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>